--- a/Assets/ListaAlimPerros.xlsx
+++ b/Assets/ListaAlimPerros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-PROGRAMACIO CON VSC\MP-NUEVO-INDEX\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C004D-4BA6-425B-93A6-D2732325002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166065BE-4C12-4524-A082-07567963CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,15 +493,15 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,7 +733,7 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -755,11 +755,11 @@
         <v>2865</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,9 +767,9 @@
         <v>3185</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -777,9 +777,9 @@
         <v>2475</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3365</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -797,7 +797,7 @@
         <v>1790</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -809,9 +809,9 @@
         <v>1730</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -831,11 +831,11 @@
         <v>5190</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -843,9 +843,9 @@
         <v>4880</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -853,9 +853,9 @@
         <v>4710</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
@@ -863,11 +863,11 @@
         <v>4800</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -875,9 +875,9 @@
         <v>4390</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -885,9 +885,9 @@
         <v>4260</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
@@ -895,9 +895,9 @@
         <v>3755</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -905,9 +905,9 @@
         <v>4850</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -915,11 +915,11 @@
         <v>2455</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -927,9 +927,9 @@
         <v>1950</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -941,37 +941,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="17">
-        <v>5360</v>
+        <v>5840</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="17">
-        <v>4710</v>
+        <v>5130</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="17">
-        <v>2950</v>
+        <v>3215</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -993,7 +993,7 @@
         <v>7430</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>9530</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -1015,7 +1015,7 @@
         <v>9540</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -1025,7 +1025,7 @@
         <v>6950</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
@@ -1045,7 +1045,7 @@
         <v>4470</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>4060</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -1067,7 +1067,7 @@
         <v>4590</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="34" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
         <v>3390</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
@@ -1089,7 +1089,7 @@
         <v>3610</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>3180</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
@@ -1111,7 +1111,7 @@
         <v>3180</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
@@ -1121,7 +1121,7 @@
         <v>4470</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
@@ -1131,7 +1131,7 @@
         <v>2590</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="34" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>2470</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
@@ -1153,7 +1153,7 @@
         <v>2350</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
@@ -1163,7 +1163,7 @@
         <v>2340</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>2340</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
@@ -1185,7 +1185,7 @@
         <v>730</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>730</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
@@ -1207,7 +1207,7 @@
         <v>730</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
@@ -1217,7 +1217,7 @@
         <v>730</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="35"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
@@ -1227,7 +1227,7 @@
         <v>730</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
@@ -1237,37 +1237,37 @@
         <v>730</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="32"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="33">
         <v>3460</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="33">
         <v>3460</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="33">
         <v>3460</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="33">
         <v>1790</v>
       </c>
     </row>

--- a/Assets/ListaAlimPerros.xlsx
+++ b/Assets/ListaAlimPerros.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-PROGRAMACIO CON VSC\MP-NUEVO-INDEX\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166065BE-4C12-4524-A082-07567963CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>productofit</t>
   </si>
@@ -215,93 +206,61 @@
   </si>
   <si>
     <t>Pedigree-Pouch-R-Peq-Pollo</t>
-  </si>
-  <si>
-    <t>Agility-Lata-Perro-Cachorro-Carne</t>
-  </si>
-  <si>
-    <t>Agility-Lata-Perro-Ad-Carne</t>
-  </si>
-  <si>
-    <t>Agility-Lata-Perro-Ad-Pollo</t>
-  </si>
-  <si>
-    <t>Agility-Lata-Perro-Ad-Pollo-90g</t>
-  </si>
-  <si>
-    <t>Sieger-Lata-Perro-Ad-Cordero</t>
-  </si>
-  <si>
-    <t>Sieger-Lata-Perro-Ad-Recovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFCE9178"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,27 +328,9 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
@@ -403,10 +344,8 @@
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
@@ -416,111 +355,124 @@
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -710,30 +662,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.63"/>
+    <col customWidth="1" min="3" max="3" width="17.13"/>
+    <col customWidth="1" min="4" max="4" width="22.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,548 +694,505 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>2865</v>
+        <v>2865.0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3185</v>
+        <v>3185.0</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>2475</v>
+        <v>2475.0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>3365</v>
+        <v>3365.0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
-        <v>1790</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="9">
+        <v>1790.0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
-        <v>1730</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>1730.0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>1830</v>
+        <v>1830.0</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
-        <v>5190</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="13">
+        <v>5190.0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
-        <v>4880</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="13">
+        <v>4880.0</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11">
-        <v>4710</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="13">
+        <v>4710.0</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13">
-        <v>4800</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="15">
+        <v>4800.0</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13">
-        <v>4390</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="15">
+        <v>4390.0</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="13">
-        <v>4260</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="15">
+        <v>4260.0</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="13">
-        <v>3755</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="15">
+        <v>3755.0</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13">
-        <v>4850</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <v>4850.0</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>2455</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="34" t="s">
+        <v>2455.0</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="4">
-        <v>1950</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+        <v>1950.0</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15">
-        <v>1420</v>
+      <c r="B19" s="17">
+        <v>1420.0</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="20">
+      <c r="A20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17">
-        <v>5840</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="19">
+        <v>5360.0</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="21">
+      <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="17">
-        <v>5130</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="19">
+        <v>4710.0</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="17">
-        <v>3215</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="B22" s="19">
+        <v>2950.0</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="19">
-        <v>8580</v>
+      <c r="B23" s="21">
+        <v>8580.0</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+    <row r="24">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="21">
-        <v>7430</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="34" t="s">
+      <c r="B24" s="23">
+        <v>7430.0</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+    <row r="25">
+      <c r="A25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="21">
-        <v>9530</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="B25" s="23">
+        <v>9530.0</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="21">
-        <v>9540</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B26" s="23">
+        <v>9540.0</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="21">
-        <v>6950</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="B27" s="23">
+        <v>6950.0</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="21">
-        <v>8110</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="B28" s="23">
+        <v>8110.0</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="24">
-        <v>4470</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="34" t="s">
+      <c r="B29" s="26">
+        <v>4470.0</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+    <row r="30">
+      <c r="A30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="24">
-        <v>4060</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="B30" s="26">
+        <v>4060.0</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="26">
-        <v>4590</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="34" t="s">
+      <c r="B31" s="28">
+        <v>4590.0</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+    <row r="32">
+      <c r="A32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="26">
-        <v>3390</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="B32" s="28">
+        <v>3390.0</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="28">
-        <v>3610</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="34" t="s">
+      <c r="B33" s="30">
+        <v>3930.0</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+    <row r="34">
+      <c r="A34" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="28">
-        <v>3180</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
+      <c r="B34" s="30">
+        <v>3460.0</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="28">
-        <v>3180</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="35"/>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="B35" s="30">
+        <v>3460.0</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="28">
-        <v>4470</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="B36" s="30">
+        <v>4870.0</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="30">
-        <v>2590</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="34" t="s">
+      <c r="B37" s="32">
+        <v>2820.0</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+    <row r="38">
+      <c r="A38" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="30">
-        <v>2470</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="B38" s="32">
+        <v>2700.0</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="30">
-        <v>2350</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="35"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+      <c r="B39" s="32">
+        <v>2560.0</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="24">
-        <v>2340</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="34" t="s">
+      <c r="B40" s="26">
+        <v>2340.0</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+    <row r="41">
+      <c r="A41" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="24">
-        <v>2340</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="B41" s="26">
+        <v>2340.0</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="13">
-        <v>730</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="34" t="s">
+      <c r="B42" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+    <row r="43">
+      <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="13">
-        <v>730</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="13">
-        <v>730</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="B44" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="13">
-        <v>730</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="B45" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="13">
-        <v>730</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="B46" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="13">
-        <v>730</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="33">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="33">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="33">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="33">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="13">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="13">
-        <v>4730</v>
-      </c>
+      <c r="B47" s="15">
+        <v>730.0</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D42:D47"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -1297,13 +1201,7 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/ListaAlimPerros.xlsx
+++ b/Assets/ListaAlimPerros.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 - PROGRAMACION\MP-NUEVO-INDEX\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997E778-C14E-4A9D-B950-4EB78685F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>productofit</t>
   </si>
@@ -206,51 +215,76 @@
   </si>
   <si>
     <t>Pedigree-Pouch-R-Peq-Pollo</t>
+  </si>
+  <si>
+    <t>Agility-Lata-Perro-Cachorro-Carne</t>
+  </si>
+  <si>
+    <t>Agility-Lata-Perro-Ad-Carne</t>
+  </si>
+  <si>
+    <t>Agility-Lata-Perro-Ad-Pollo</t>
+  </si>
+  <si>
+    <t>Agility-Lata-Perro-Ad-Pollo-90g</t>
+  </si>
+  <si>
+    <t>Sieger-Lata-Perro-Ad-Cordero</t>
+  </si>
+  <si>
+    <t>Sieger-Lata-Perro-Ad-Recovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFCE9178"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
     </font>
@@ -260,7 +294,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,7 +364,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
@@ -344,8 +384,10 @@
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
@@ -355,124 +397,108 @@
       <bottom style="thin">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -662,25 +688,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.63"/>
-    <col customWidth="1" min="3" max="3" width="17.13"/>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,514 +727,609 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>2865.0</v>
+        <v>2865</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3185.0</v>
+        <v>3185</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>2475.0</v>
+        <v>2475</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5">
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>3365.0</v>
+        <v>3365</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
-        <v>1790.0</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7">
+        <v>1790</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9">
-        <v>1730.0</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="7">
+        <v>1730</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13">
-        <v>5190.0</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="11">
+        <v>5190</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13">
-        <v>4880.0</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="11">
+        <v>4880</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13">
-        <v>4710.0</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="11">
+        <v>4710</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
-        <v>4800.0</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="13">
+        <v>4800</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="15">
-        <v>4390.0</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="13">
+        <v>4390</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="15">
-        <v>4260.0</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="B14" s="13">
+        <v>4260</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15">
-        <v>3755.0</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="B15" s="13">
+        <v>3755</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15">
-        <v>4850.0</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17">
+      <c r="B16" s="13">
+        <v>4850</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>2455.0</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="4">
-        <v>1950.0</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
-        <v>1420.0</v>
+      <c r="B19" s="15">
+        <v>1420</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="19">
-        <v>5360.0</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="17">
+        <v>5360</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="19">
-        <v>4710.0</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
+      <c r="B21" s="17">
+        <v>4710</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="19">
-        <v>2950.0</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="17">
+        <v>2950</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="21">
-        <v>8580.0</v>
+      <c r="B23" s="19">
+        <v>8580</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="23">
-        <v>7430.0</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="21">
+        <v>7430</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="23">
-        <v>9530.0</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="21">
+        <v>9530</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="23">
-        <v>9540.0</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
+      <c r="B26" s="21">
+        <v>9540</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="23">
-        <v>6950.0</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
+      <c r="B27" s="21">
+        <v>6950</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23">
-        <v>8110.0</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="B28" s="21">
+        <v>8110</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="26">
-        <v>4470.0</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="24">
+        <v>4470</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="26">
-        <v>4060.0</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="27" t="s">
+      <c r="B30" s="24">
+        <v>4060</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="28">
-        <v>4590.0</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="26">
+        <v>4590</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="28">
-        <v>3390.0</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="29" t="s">
+      <c r="B32" s="26">
+        <v>3390</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="30">
-        <v>3930.0</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="28">
+        <v>3930</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="29" t="s">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="30">
-        <v>3460.0</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="29" t="s">
+      <c r="B34" s="28">
+        <v>3460</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="30">
-        <v>3460.0</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="29" t="s">
+      <c r="B35" s="28">
+        <v>3460</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="30">
-        <v>4870.0</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="31" t="s">
+      <c r="B36" s="28">
+        <v>4870</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="32">
-        <v>2820.0</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="30">
+        <v>2820</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="32">
-        <v>2700.0</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="31" t="s">
+      <c r="B38" s="30">
+        <v>2700</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="32">
-        <v>2560.0</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="25" t="s">
+      <c r="B39" s="30">
+        <v>2560</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="26">
-        <v>2340.0</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="24">
+        <v>2340</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="26">
-        <v>2340.0</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="B41" s="24">
+        <v>2340</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="13">
+        <v>900</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="B43" s="13">
+        <v>900</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="B44" s="13">
+        <v>900</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="B45" s="13">
+        <v>900</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="14" t="s">
+      <c r="B46" s="13">
+        <v>900</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="15">
-        <v>730.0</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="7"/>
-    </row>
+      <c r="B47" s="13">
+        <v>900</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="34"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="32">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="32">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="32">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="32">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="32">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="32">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D24:D27"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/ListaAlimPerros.xlsx
+++ b/Assets/ListaAlimPerros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 - PROGRAMACION\MP-NUEVO-INDEX\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997E778-C14E-4A9D-B950-4EB78685F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7C9E6-2A93-4307-B9A8-913B118019FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="975" windowWidth="15375" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>productofit</t>
   </si>
@@ -217,22 +217,25 @@
     <t>Pedigree-Pouch-R-Peq-Pollo</t>
   </si>
   <si>
+    <t>Sieger-Pouch-Criadores-100g</t>
+  </si>
+  <si>
     <t>Agility-Lata-Perro-Cachorro-Carne</t>
   </si>
   <si>
     <t>Agility-Lata-Perro-Ad-Carne</t>
   </si>
   <si>
+    <t>Sieger-Lata-Perro-Ad-Cordero</t>
+  </si>
+  <si>
+    <t>Sieger-Lata-Perro-Ad-Recovery</t>
+  </si>
+  <si>
     <t>Agility-Lata-Perro-Ad-Pollo</t>
   </si>
   <si>
     <t>Agility-Lata-Perro-Ad-Pollo-90g</t>
-  </si>
-  <si>
-    <t>Sieger-Lata-Perro-Ad-Cordero</t>
-  </si>
-  <si>
-    <t>Sieger-Lata-Perro-Ad-Recovery</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,10 +701,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,7 +713,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="5" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>2865</v>
+        <v>3160</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="33" t="s">
@@ -744,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3185</v>
+        <v>3510</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="34"/>
@@ -754,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>2475</v>
+        <v>2730</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="34"/>
@@ -764,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>3365</v>
+        <v>3700</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="34"/>
@@ -892,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>2455</v>
+        <v>2810</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="33" t="s">
@@ -904,7 +907,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4">
-        <v>1950</v>
+        <v>2225</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="34"/>
@@ -914,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>1420</v>
+        <v>1520</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9" t="s">
@@ -926,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="17">
-        <v>5360</v>
+        <v>5590</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="33" t="s">
@@ -938,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="17">
-        <v>4710</v>
+        <v>4910</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="34"/>
@@ -948,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="17">
-        <v>2950</v>
+        <v>3080</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="34"/>
@@ -1044,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="26">
-        <v>4590</v>
+        <v>4990</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="33" t="s">
@@ -1056,7 +1059,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="26">
-        <v>3390</v>
+        <v>3730</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="34"/>
@@ -1140,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="24">
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="33" t="s">
@@ -1152,7 +1155,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="24">
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="34"/>
@@ -1223,20 +1226,20 @@
       <c r="A48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="32">
-        <v>3880</v>
+      <c r="B48" s="31">
+        <v>2600</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="31">
         <v>3880</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="32">
@@ -1245,29 +1248,36 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" s="32">
-        <v>2040</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="32">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="32">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="32">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="32">
+      <c r="B54" s="32">
         <v>5860</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1314,16 +1324,165 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D16"/>
